--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
   </si>
   <si>
     <t>Adam11</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +525,929 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.34442547637536</v>
+        <v>0.1156076666666667</v>
       </c>
       <c r="H2">
-        <v>3.34442547637536</v>
+        <v>0.346823</v>
       </c>
       <c r="I2">
-        <v>0.8220997999574178</v>
+        <v>0.0262963554364261</v>
       </c>
       <c r="J2">
-        <v>0.8220997999574178</v>
+        <v>0.02787250156631785</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.00228763019135</v>
+        <v>0.1597026666666667</v>
       </c>
       <c r="N2">
-        <v>3.00228763019135</v>
+        <v>0.479108</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04388290247716725</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.06180863149382943</v>
       </c>
       <c r="Q2">
-        <v>10.04092723781856</v>
+        <v>0.01846285265377778</v>
       </c>
       <c r="R2">
-        <v>10.04092723781856</v>
+        <v>0.166165673884</v>
       </c>
       <c r="S2">
-        <v>0.8220997999574178</v>
+        <v>0.001153960401121614</v>
       </c>
       <c r="T2">
-        <v>0.8220997999574178</v>
+        <v>0.001722761178123723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.72372473671141</v>
+        <v>0.1156076666666667</v>
       </c>
       <c r="H3">
-        <v>0.72372473671141</v>
+        <v>0.346823</v>
       </c>
       <c r="I3">
-        <v>0.1779002000425823</v>
+        <v>0.0262963554364261</v>
       </c>
       <c r="J3">
-        <v>0.1779002000425823</v>
+        <v>0.02787250156631785</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.00228763019135</v>
+        <v>0.183029</v>
       </c>
       <c r="N3">
-        <v>3.00228763019135</v>
+        <v>0.549087</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.05029248368317861</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.07083646284564717</v>
       </c>
       <c r="Q3">
-        <v>2.172829824692158</v>
+        <v>0.02115955562233333</v>
       </c>
       <c r="R3">
-        <v>2.172829824692158</v>
+        <v>0.190436000601</v>
       </c>
       <c r="S3">
-        <v>0.1779002000425823</v>
+        <v>0.001322509026713525</v>
       </c>
       <c r="T3">
-        <v>0.1779002000425823</v>
+        <v>0.001974389421617717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.1156076666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.346823</v>
+      </c>
+      <c r="I4">
+        <v>0.0262963554364261</v>
+      </c>
+      <c r="J4">
+        <v>0.02787250156631785</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.103563</v>
+      </c>
+      <c r="N4">
+        <v>0.310689</v>
+      </c>
+      <c r="O4">
+        <v>0.0284569138643659</v>
+      </c>
+      <c r="P4">
+        <v>0.04008128002493461</v>
+      </c>
+      <c r="Q4">
+        <v>0.011972676783</v>
+      </c>
+      <c r="R4">
+        <v>0.107754091047</v>
+      </c>
+      <c r="S4">
+        <v>0.0007483131216011276</v>
+      </c>
+      <c r="T4">
+        <v>0.001117165540275014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1156076666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.346823</v>
+      </c>
+      <c r="I5">
+        <v>0.0262963554364261</v>
+      </c>
+      <c r="J5">
+        <v>0.02787250156631785</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.02659666666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.07979</v>
+      </c>
+      <c r="O5">
+        <v>0.007308199380209005</v>
+      </c>
+      <c r="P5">
+        <v>0.01029352610871171</v>
+      </c>
+      <c r="Q5">
+        <v>0.003074778574444445</v>
+      </c>
+      <c r="R5">
+        <v>0.02767300717</v>
+      </c>
+      <c r="S5">
+        <v>0.0001921790085022449</v>
+      </c>
+      <c r="T5">
+        <v>0.0002869063225880008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1156076666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.346823</v>
+      </c>
+      <c r="I6">
+        <v>0.0262963554364261</v>
+      </c>
+      <c r="J6">
+        <v>0.02787250156631785</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.1664</v>
+      </c>
+      <c r="N6">
+        <v>6.3328</v>
+      </c>
+      <c r="O6">
+        <v>0.8700595005950792</v>
+      </c>
+      <c r="P6">
+        <v>0.816980099526877</v>
+      </c>
+      <c r="Q6">
+        <v>0.3660601157333333</v>
+      </c>
+      <c r="R6">
+        <v>2.1963606944</v>
+      </c>
+      <c r="S6">
+        <v>0.02287939387848759</v>
+      </c>
+      <c r="T6">
+        <v>0.02277127910371339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.534912333333333</v>
+      </c>
+      <c r="H7">
+        <v>10.604737</v>
+      </c>
+      <c r="I7">
+        <v>0.8040583625129217</v>
+      </c>
+      <c r="J7">
+        <v>0.8522518651960477</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1597026666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.479108</v>
+      </c>
+      <c r="O7">
+        <v>0.04388290247716725</v>
+      </c>
+      <c r="P7">
+        <v>0.06180863149382943</v>
+      </c>
+      <c r="Q7">
+        <v>0.5645349260662221</v>
+      </c>
+      <c r="R7">
+        <v>5.080814334596</v>
+      </c>
+      <c r="S7">
+        <v>0.03528441470810534</v>
+      </c>
+      <c r="T7">
+        <v>0.05267652147583131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.534912333333333</v>
+      </c>
+      <c r="H8">
+        <v>10.604737</v>
+      </c>
+      <c r="I8">
+        <v>0.8040583625129217</v>
+      </c>
+      <c r="J8">
+        <v>0.8522518651960477</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.183029</v>
+      </c>
+      <c r="N8">
+        <v>0.549087</v>
+      </c>
+      <c r="O8">
+        <v>0.05029248368317861</v>
+      </c>
+      <c r="P8">
+        <v>0.07083646284564717</v>
+      </c>
+      <c r="Q8">
+        <v>0.6469914694576666</v>
+      </c>
+      <c r="R8">
+        <v>5.822923225119</v>
+      </c>
+      <c r="S8">
+        <v>0.04043809207700443</v>
+      </c>
+      <c r="T8">
+        <v>0.06037050758409333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.534912333333333</v>
+      </c>
+      <c r="H9">
+        <v>10.604737</v>
+      </c>
+      <c r="I9">
+        <v>0.8040583625129217</v>
+      </c>
+      <c r="J9">
+        <v>0.8522518651960477</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.103563</v>
+      </c>
+      <c r="N9">
+        <v>0.310689</v>
+      </c>
+      <c r="O9">
+        <v>0.0284569138643659</v>
+      </c>
+      <c r="P9">
+        <v>0.04008128002493461</v>
+      </c>
+      <c r="Q9">
+        <v>0.366086125977</v>
+      </c>
+      <c r="R9">
+        <v>3.294775133793</v>
+      </c>
+      <c r="S9">
+        <v>0.02288101956395331</v>
+      </c>
+      <c r="T9">
+        <v>0.03415934566069561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.534912333333333</v>
+      </c>
+      <c r="H10">
+        <v>10.604737</v>
+      </c>
+      <c r="I10">
+        <v>0.8040583625129217</v>
+      </c>
+      <c r="J10">
+        <v>0.8522518651960477</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02659666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.07979</v>
+      </c>
+      <c r="O10">
+        <v>0.007308199380209005</v>
+      </c>
+      <c r="P10">
+        <v>0.01029352610871171</v>
+      </c>
+      <c r="Q10">
+        <v>0.09401688502555555</v>
+      </c>
+      <c r="R10">
+        <v>0.84615196523</v>
+      </c>
+      <c r="S10">
+        <v>0.005876218826568802</v>
+      </c>
+      <c r="T10">
+        <v>0.008772676825593771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.534912333333333</v>
+      </c>
+      <c r="H11">
+        <v>10.604737</v>
+      </c>
+      <c r="I11">
+        <v>0.8040583625129217</v>
+      </c>
+      <c r="J11">
+        <v>0.8522518651960477</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.1664</v>
+      </c>
+      <c r="N11">
+        <v>6.3328</v>
+      </c>
+      <c r="O11">
+        <v>0.8700595005950792</v>
+      </c>
+      <c r="P11">
+        <v>0.816980099526877</v>
+      </c>
+      <c r="Q11">
+        <v>11.19294641226667</v>
+      </c>
+      <c r="R11">
+        <v>67.1576784736</v>
+      </c>
+      <c r="S11">
+        <v>0.6995786173372899</v>
+      </c>
+      <c r="T11">
+        <v>0.6962728136498336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7458180000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.491636</v>
+      </c>
+      <c r="I12">
+        <v>0.1696452820506522</v>
+      </c>
+      <c r="J12">
+        <v>0.1198756332376345</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1597026666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.479108</v>
+      </c>
+      <c r="O12">
+        <v>0.04388290247716725</v>
+      </c>
+      <c r="P12">
+        <v>0.06180863149382943</v>
+      </c>
+      <c r="Q12">
+        <v>0.119109123448</v>
+      </c>
+      <c r="R12">
+        <v>0.7146547406880001</v>
+      </c>
+      <c r="S12">
+        <v>0.007444527367940302</v>
+      </c>
+      <c r="T12">
+        <v>0.0074093488398744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7458180000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.491636</v>
+      </c>
+      <c r="I13">
+        <v>0.1696452820506522</v>
+      </c>
+      <c r="J13">
+        <v>0.1198756332376345</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.183029</v>
+      </c>
+      <c r="N13">
+        <v>0.549087</v>
+      </c>
+      <c r="O13">
+        <v>0.05029248368317861</v>
+      </c>
+      <c r="P13">
+        <v>0.07083646284564717</v>
+      </c>
+      <c r="Q13">
+        <v>0.136506322722</v>
+      </c>
+      <c r="R13">
+        <v>0.8190379363320001</v>
+      </c>
+      <c r="S13">
+        <v>0.008531882579460658</v>
+      </c>
+      <c r="T13">
+        <v>0.00849156583993612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7458180000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.491636</v>
+      </c>
+      <c r="I14">
+        <v>0.1696452820506522</v>
+      </c>
+      <c r="J14">
+        <v>0.1198756332376345</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.103563</v>
+      </c>
+      <c r="N14">
+        <v>0.310689</v>
+      </c>
+      <c r="O14">
+        <v>0.0284569138643659</v>
+      </c>
+      <c r="P14">
+        <v>0.04008128002493461</v>
+      </c>
+      <c r="Q14">
+        <v>0.07723914953400002</v>
+      </c>
+      <c r="R14">
+        <v>0.4634348972040001</v>
+      </c>
+      <c r="S14">
+        <v>0.004827581178811468</v>
+      </c>
+      <c r="T14">
+        <v>0.004804768823963986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7458180000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.491636</v>
+      </c>
+      <c r="I15">
+        <v>0.1696452820506522</v>
+      </c>
+      <c r="J15">
+        <v>0.1198756332376345</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02659666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.07979</v>
+      </c>
+      <c r="O15">
+        <v>0.007308199380209005</v>
+      </c>
+      <c r="P15">
+        <v>0.01029352610871171</v>
+      </c>
+      <c r="Q15">
+        <v>0.01983627274</v>
+      </c>
+      <c r="R15">
+        <v>0.11901763644</v>
+      </c>
+      <c r="S15">
+        <v>0.001239801545137958</v>
+      </c>
+      <c r="T15">
+        <v>0.00123394296052994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7458180000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.491636</v>
+      </c>
+      <c r="I16">
+        <v>0.1696452820506522</v>
+      </c>
+      <c r="J16">
+        <v>0.1198756332376345</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.1664</v>
+      </c>
+      <c r="N16">
+        <v>6.3328</v>
+      </c>
+      <c r="O16">
+        <v>0.8700595005950792</v>
+      </c>
+      <c r="P16">
+        <v>0.816980099526877</v>
+      </c>
+      <c r="Q16">
+        <v>2.3615581152</v>
+      </c>
+      <c r="R16">
+        <v>9.446232460800001</v>
+      </c>
+      <c r="S16">
+        <v>0.1476014893793018</v>
+      </c>
+      <c r="T16">
+        <v>0.09793600677333</v>
       </c>
     </row>
   </sheetData>
